--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ihh-Cdon.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ihh-Cdon.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.623902</v>
+        <v>1.7455905</v>
       </c>
       <c r="N2">
-        <v>5.247803999999999</v>
+        <v>3.491181</v>
       </c>
       <c r="O2">
-        <v>0.04297728403825449</v>
+        <v>0.06735438749894324</v>
       </c>
       <c r="P2">
-        <v>0.03946320605540395</v>
+        <v>0.05664184489359518</v>
       </c>
       <c r="Q2">
-        <v>0.040795553662</v>
+        <v>0.0271398592305</v>
       </c>
       <c r="R2">
-        <v>0.244773321972</v>
+        <v>0.162839155383</v>
       </c>
       <c r="S2">
-        <v>0.04297728403825449</v>
+        <v>0.06735438749894324</v>
       </c>
       <c r="T2">
-        <v>0.03946320605540395</v>
+        <v>0.05664184489359518</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>28.808021</v>
       </c>
       <c r="O3">
-        <v>0.1572836309050415</v>
+        <v>0.3705234435972038</v>
       </c>
       <c r="P3">
-        <v>0.2166347807142577</v>
+        <v>0.4673889601179179</v>
       </c>
       <c r="Q3">
         <v>0.1492991692781111</v>
@@ -641,10 +641,10 @@
         <v>1.343692523503</v>
       </c>
       <c r="S3">
-        <v>0.1572836309050415</v>
+        <v>0.3705234435972038</v>
       </c>
       <c r="T3">
-        <v>0.2166347807142577</v>
+        <v>0.4673889601179179</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.146072</v>
+        <v>0.03863166666666667</v>
       </c>
       <c r="N4">
-        <v>0.438216</v>
+        <v>0.115895</v>
       </c>
       <c r="O4">
-        <v>0.002392535176251214</v>
+        <v>0.001490620077501955</v>
       </c>
       <c r="P4">
-        <v>0.003295360936646052</v>
+        <v>0.001880311165173966</v>
       </c>
       <c r="Q4">
-        <v>0.002271078765333334</v>
+        <v>0.0006006322761111111</v>
       </c>
       <c r="R4">
-        <v>0.020439708888</v>
+        <v>0.005405690485</v>
       </c>
       <c r="S4">
-        <v>0.002392535176251214</v>
+        <v>0.001490620077501955</v>
       </c>
       <c r="T4">
-        <v>0.003295360936646052</v>
+        <v>0.001880311165173966</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.5561205</v>
+        <v>14.3678575</v>
       </c>
       <c r="N5">
-        <v>95.112241</v>
+        <v>28.735715</v>
       </c>
       <c r="O5">
-        <v>0.7789288237464499</v>
+        <v>0.5543901857764452</v>
       </c>
       <c r="P5">
-        <v>0.7152389770986568</v>
+        <v>0.4662158484296736</v>
       </c>
       <c r="Q5">
-        <v>0.7393867094938333</v>
+        <v>0.2233866591241667</v>
       </c>
       <c r="R5">
-        <v>4.436320256963</v>
+        <v>1.340319954745</v>
       </c>
       <c r="S5">
-        <v>0.7789288237464499</v>
+        <v>0.5543901857764452</v>
       </c>
       <c r="T5">
-        <v>0.7152389770986568</v>
+        <v>0.4662158484296736</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.008459666666667</v>
+        <v>0.06980833333333333</v>
       </c>
       <c r="N6">
-        <v>3.025379</v>
+        <v>0.209425</v>
       </c>
       <c r="O6">
-        <v>0.01651771199360982</v>
+        <v>0.002693585657110719</v>
       </c>
       <c r="P6">
-        <v>0.02275068864475349</v>
+        <v>0.003397766648833495</v>
       </c>
       <c r="Q6">
-        <v>0.01567919474411111</v>
+        <v>0.001085356697222222</v>
       </c>
       <c r="R6">
-        <v>0.141112752697</v>
+        <v>0.009768210275</v>
       </c>
       <c r="S6">
-        <v>0.01651771199360982</v>
+        <v>0.002693585657110719</v>
       </c>
       <c r="T6">
-        <v>0.02275068864475349</v>
+        <v>0.003397766648833495</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.116002</v>
+        <v>0.09194599999999999</v>
       </c>
       <c r="N7">
-        <v>0.348006</v>
+        <v>0.275838</v>
       </c>
       <c r="O7">
-        <v>0.001900014140393048</v>
+        <v>0.003547777392795065</v>
       </c>
       <c r="P7">
-        <v>0.002616986550282158</v>
+        <v>0.004475268744805699</v>
       </c>
       <c r="Q7">
-        <v>0.001803560428666667</v>
+        <v>0.001429545759333333</v>
       </c>
       <c r="R7">
-        <v>0.016232043858</v>
+        <v>0.012865911834</v>
       </c>
       <c r="S7">
-        <v>0.001900014140393048</v>
+        <v>0.003547777392795065</v>
       </c>
       <c r="T7">
-        <v>0.002616986550282158</v>
+        <v>0.004475268744805699</v>
       </c>
     </row>
   </sheetData>
